--- a/others/Группы с корп. почтами.xlsx
+++ b/others/Группы с корп. почтами.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAA0C93-F0FA-45BD-8335-F9EFE012FE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БПИ251" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="588">
   <si>
     <t>БПИ251</t>
   </si>
@@ -1611,9 +1612,6 @@
     <t>Юсин Матвей</t>
   </si>
   <si>
-    <t>myussin@edu.hse.ru</t>
-  </si>
-  <si>
     <t>БПИ2510</t>
   </si>
   <si>
@@ -1789,12 +1787,18 @@
   </si>
   <si>
     <t>rufayusupov@edu.hse.ru</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>m+A1:B30yussin@edu.hse.ru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1898,7 +1902,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2175,25 +2179,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2201,7 +2205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2209,7 +2213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2217,13 +2221,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2231,7 +2235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2239,7 +2243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2247,7 +2251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2255,7 +2259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2263,7 +2267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2271,7 +2275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -2279,7 +2283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2287,7 +2291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2295,7 +2299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -2303,7 +2307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -2311,7 +2315,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,7 +2323,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2327,7 +2331,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -2335,7 +2339,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
@@ -2343,7 +2347,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -2351,7 +2355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -2359,7 +2363,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -2367,7 +2371,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -2375,7 +2379,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -2383,7 +2387,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -2391,7 +2395,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -2399,7 +2403,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -2407,7 +2411,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -2415,7 +2419,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -2423,7 +2427,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -2431,280 +2435,280 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -2714,255 +2718,255 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -2974,26 +2978,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.109375" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
@@ -3001,7 +3005,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>63</v>
       </c>
@@ -3009,7 +3013,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
@@ -3017,13 +3021,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -3031,7 +3035,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>70</v>
       </c>
@@ -3039,7 +3043,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -3047,7 +3051,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
@@ -3055,7 +3059,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,7 +3067,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
@@ -3071,7 +3075,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
@@ -3079,7 +3083,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>82</v>
       </c>
@@ -3087,7 +3091,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,7 +3099,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>86</v>
       </c>
@@ -3103,7 +3107,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>88</v>
       </c>
@@ -3111,7 +3115,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>90</v>
       </c>
@@ -3119,7 +3123,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>92</v>
       </c>
@@ -3127,7 +3131,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
@@ -3135,7 +3139,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>96</v>
       </c>
@@ -3143,7 +3147,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>98</v>
       </c>
@@ -3151,7 +3155,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>100</v>
       </c>
@@ -3159,7 +3163,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>102</v>
       </c>
@@ -3167,7 +3171,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>104</v>
       </c>
@@ -3175,7 +3179,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>106</v>
       </c>
@@ -3183,7 +3187,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>108</v>
       </c>
@@ -3191,7 +3195,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -3199,7 +3203,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>112</v>
       </c>
@@ -3207,13 +3211,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>115</v>
       </c>
@@ -3221,7 +3225,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>117</v>
       </c>
@@ -3238,26 +3242,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>120</v>
       </c>
@@ -3265,7 +3269,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>122</v>
       </c>
@@ -3273,7 +3277,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>124</v>
       </c>
@@ -3281,7 +3285,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>126</v>
       </c>
@@ -3289,7 +3293,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>128</v>
       </c>
@@ -3297,7 +3301,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>130</v>
       </c>
@@ -3305,7 +3309,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>132</v>
       </c>
@@ -3313,7 +3317,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>134</v>
       </c>
@@ -3321,13 +3325,13 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>137</v>
       </c>
@@ -3335,7 +3339,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>139</v>
       </c>
@@ -3343,7 +3347,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>141</v>
       </c>
@@ -3351,7 +3355,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>143</v>
       </c>
@@ -3359,7 +3363,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>145</v>
       </c>
@@ -3367,7 +3371,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>147</v>
       </c>
@@ -3375,7 +3379,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>149</v>
       </c>
@@ -3383,7 +3387,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>151</v>
       </c>
@@ -3391,7 +3395,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>153</v>
       </c>
@@ -3399,7 +3403,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>155</v>
       </c>
@@ -3407,7 +3411,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>157</v>
       </c>
@@ -3415,7 +3419,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>159</v>
       </c>
@@ -3423,7 +3427,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>161</v>
       </c>
@@ -3431,7 +3435,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>163</v>
       </c>
@@ -3439,7 +3443,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>165</v>
       </c>
@@ -3447,7 +3451,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>167</v>
       </c>
@@ -3455,7 +3459,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>169</v>
       </c>
@@ -3463,7 +3467,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>171</v>
       </c>
@@ -3471,7 +3475,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>173</v>
       </c>
@@ -3479,7 +3483,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>175</v>
       </c>
@@ -3487,7 +3491,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>177</v>
       </c>
@@ -3504,26 +3508,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>180</v>
       </c>
@@ -3531,7 +3535,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>182</v>
       </c>
@@ -3539,7 +3543,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>184</v>
       </c>
@@ -3547,7 +3551,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>186</v>
       </c>
@@ -3555,7 +3559,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>188</v>
       </c>
@@ -3563,7 +3567,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>190</v>
       </c>
@@ -3571,7 +3575,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>192</v>
       </c>
@@ -3579,7 +3583,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>194</v>
       </c>
@@ -3587,7 +3591,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>196</v>
       </c>
@@ -3595,7 +3599,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>198</v>
       </c>
@@ -3603,7 +3607,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>200</v>
       </c>
@@ -3611,7 +3615,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>202</v>
       </c>
@@ -3619,7 +3623,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>204</v>
       </c>
@@ -3627,7 +3631,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>206</v>
       </c>
@@ -3635,7 +3639,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>208</v>
       </c>
@@ -3643,7 +3647,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>210</v>
       </c>
@@ -3651,7 +3655,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>212</v>
       </c>
@@ -3659,7 +3663,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>214</v>
       </c>
@@ -3667,7 +3671,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>216</v>
       </c>
@@ -3675,7 +3679,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>218</v>
       </c>
@@ -3683,7 +3687,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>220</v>
       </c>
@@ -3691,7 +3695,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>222</v>
       </c>
@@ -3699,7 +3703,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>224</v>
       </c>
@@ -3707,7 +3711,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>226</v>
       </c>
@@ -3715,7 +3719,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>228</v>
       </c>
@@ -3723,7 +3727,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>230</v>
       </c>
@@ -3731,13 +3735,13 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>233</v>
       </c>
@@ -3745,7 +3749,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>235</v>
       </c>
@@ -3753,7 +3757,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>237</v>
       </c>
@@ -3770,26 +3774,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="43.109375" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>239</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>240</v>
       </c>
@@ -3797,7 +3801,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>242</v>
       </c>
@@ -3805,7 +3809,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>244</v>
       </c>
@@ -3813,7 +3817,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>246</v>
       </c>
@@ -3821,7 +3825,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>248</v>
       </c>
@@ -3829,7 +3833,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>250</v>
       </c>
@@ -3837,7 +3841,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>252</v>
       </c>
@@ -3845,7 +3849,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>254</v>
       </c>
@@ -3853,7 +3857,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>256</v>
       </c>
@@ -3861,7 +3865,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>258</v>
       </c>
@@ -3869,7 +3873,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>260</v>
       </c>
@@ -3877,7 +3881,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>262</v>
       </c>
@@ -3885,7 +3889,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>264</v>
       </c>
@@ -3893,7 +3897,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>266</v>
       </c>
@@ -3901,7 +3905,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>268</v>
       </c>
@@ -3909,7 +3913,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>270</v>
       </c>
@@ -3917,7 +3921,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>272</v>
       </c>
@@ -3925,7 +3929,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>274</v>
       </c>
@@ -3933,7 +3937,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>276</v>
       </c>
@@ -3941,7 +3945,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>278</v>
       </c>
@@ -3949,7 +3953,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>280</v>
       </c>
@@ -3957,7 +3961,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>282</v>
       </c>
@@ -3965,7 +3969,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>284</v>
       </c>
@@ -3973,7 +3977,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>286</v>
       </c>
@@ -3981,7 +3985,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>288</v>
       </c>
@@ -3989,7 +3993,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>290</v>
       </c>
@@ -3997,7 +4001,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>292</v>
       </c>
@@ -4005,7 +4009,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>294</v>
       </c>
@@ -4013,7 +4017,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>296</v>
       </c>
@@ -4021,7 +4025,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>298</v>
       </c>
@@ -4038,26 +4042,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.109375" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>300</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>301</v>
       </c>
@@ -4065,7 +4069,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>303</v>
       </c>
@@ -4073,7 +4077,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>305</v>
       </c>
@@ -4081,7 +4085,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>307</v>
       </c>
@@ -4089,7 +4093,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>309</v>
       </c>
@@ -4097,7 +4101,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>311</v>
       </c>
@@ -4105,7 +4109,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>313</v>
       </c>
@@ -4113,7 +4117,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>315</v>
       </c>
@@ -4121,7 +4125,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>317</v>
       </c>
@@ -4129,7 +4133,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>319</v>
       </c>
@@ -4137,7 +4141,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>321</v>
       </c>
@@ -4145,7 +4149,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>323</v>
       </c>
@@ -4153,7 +4157,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>325</v>
       </c>
@@ -4161,7 +4165,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>327</v>
       </c>
@@ -4169,7 +4173,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>329</v>
       </c>
@@ -4177,7 +4181,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>331</v>
       </c>
@@ -4185,7 +4189,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>333</v>
       </c>
@@ -4193,7 +4197,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>335</v>
       </c>
@@ -4201,7 +4205,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>337</v>
       </c>
@@ -4209,7 +4213,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>339</v>
       </c>
@@ -4217,7 +4221,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>341</v>
       </c>
@@ -4225,7 +4229,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>343</v>
       </c>
@@ -4233,7 +4237,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>345</v>
       </c>
@@ -4241,7 +4245,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>347</v>
       </c>
@@ -4249,7 +4253,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>349</v>
       </c>
@@ -4257,7 +4261,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>351</v>
       </c>
@@ -4265,7 +4269,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>353</v>
       </c>
@@ -4273,7 +4277,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>355</v>
       </c>
@@ -4281,7 +4285,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>357</v>
       </c>
@@ -4298,26 +4302,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>359</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>360</v>
       </c>
@@ -4325,7 +4329,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>362</v>
       </c>
@@ -4333,7 +4337,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>364</v>
       </c>
@@ -4341,7 +4345,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>366</v>
       </c>
@@ -4349,7 +4353,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>368</v>
       </c>
@@ -4357,7 +4361,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>370</v>
       </c>
@@ -4365,7 +4369,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>372</v>
       </c>
@@ -4373,7 +4377,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>374</v>
       </c>
@@ -4381,7 +4385,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>376</v>
       </c>
@@ -4389,7 +4393,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>378</v>
       </c>
@@ -4397,7 +4401,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>380</v>
       </c>
@@ -4405,7 +4409,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>382</v>
       </c>
@@ -4413,7 +4417,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>384</v>
       </c>
@@ -4421,7 +4425,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>386</v>
       </c>
@@ -4429,7 +4433,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>388</v>
       </c>
@@ -4437,7 +4441,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>390</v>
       </c>
@@ -4445,7 +4449,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>392</v>
       </c>
@@ -4453,13 +4457,13 @@
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>394</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>395</v>
       </c>
@@ -4467,7 +4471,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>397</v>
       </c>
@@ -4475,7 +4479,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>399</v>
       </c>
@@ -4483,7 +4487,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>401</v>
       </c>
@@ -4491,7 +4495,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>403</v>
       </c>
@@ -4499,7 +4503,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>405</v>
       </c>
@@ -4507,7 +4511,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>407</v>
       </c>
@@ -4515,7 +4519,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>409</v>
       </c>
@@ -4523,7 +4527,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>411</v>
       </c>
@@ -4531,7 +4535,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>413</v>
       </c>
@@ -4539,7 +4543,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>415</v>
       </c>
@@ -4556,26 +4560,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>417</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>418</v>
       </c>
@@ -4583,7 +4587,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>420</v>
       </c>
@@ -4591,13 +4595,13 @@
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>422</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>423</v>
       </c>
@@ -4605,7 +4609,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>425</v>
       </c>
@@ -4613,7 +4617,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>427</v>
       </c>
@@ -4621,7 +4625,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>429</v>
       </c>
@@ -4629,7 +4633,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>431</v>
       </c>
@@ -4637,7 +4641,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>433</v>
       </c>
@@ -4645,7 +4649,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>435</v>
       </c>
@@ -4653,7 +4657,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>437</v>
       </c>
@@ -4661,13 +4665,13 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>439</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>440</v>
       </c>
@@ -4675,7 +4679,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>442</v>
       </c>
@@ -4683,7 +4687,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>444</v>
       </c>
@@ -4691,7 +4695,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>446</v>
       </c>
@@ -4699,7 +4703,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>448</v>
       </c>
@@ -4707,7 +4711,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>450</v>
       </c>
@@ -4715,13 +4719,13 @@
         <v>451</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>452</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>453</v>
       </c>
@@ -4729,13 +4733,13 @@
         <v>454</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>455</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>456</v>
       </c>
@@ -4743,7 +4747,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>458</v>
       </c>
@@ -4751,7 +4755,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>460</v>
       </c>
@@ -4759,7 +4763,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>462</v>
       </c>
@@ -4767,7 +4771,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>464</v>
       </c>
@@ -4775,7 +4779,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>466</v>
       </c>
@@ -4783,13 +4787,13 @@
         <v>467</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>468</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>469</v>
       </c>
@@ -4806,26 +4810,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>471</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>472</v>
       </c>
@@ -4833,7 +4837,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>474</v>
       </c>
@@ -4841,7 +4845,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>476</v>
       </c>
@@ -4849,7 +4853,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>478</v>
       </c>
@@ -4857,7 +4861,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>480</v>
       </c>
@@ -4865,7 +4869,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>482</v>
       </c>
@@ -4873,7 +4877,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>484</v>
       </c>
@@ -4881,7 +4885,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>486</v>
       </c>
@@ -4889,7 +4893,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>488</v>
       </c>
@@ -4897,7 +4901,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>490</v>
       </c>
@@ -4905,7 +4909,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>492</v>
       </c>
@@ -4913,7 +4917,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>494</v>
       </c>
@@ -4921,7 +4925,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>496</v>
       </c>
@@ -4929,7 +4933,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>498</v>
       </c>
@@ -4937,7 +4941,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>500</v>
       </c>
@@ -4945,7 +4949,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>502</v>
       </c>
@@ -4953,7 +4957,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>504</v>
       </c>
@@ -4961,7 +4965,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>506</v>
       </c>
@@ -4969,7 +4973,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>508</v>
       </c>
@@ -4977,7 +4981,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>510</v>
       </c>
@@ -4985,7 +4989,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>512</v>
       </c>
@@ -4993,7 +4997,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>514</v>
       </c>
@@ -5001,7 +5005,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>516</v>
       </c>
@@ -5009,19 +5013,19 @@
         <v>517</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>518</v>
       </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>519</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>520</v>
       </c>
@@ -5029,7 +5033,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>522</v>
       </c>
@@ -5037,7 +5041,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>524</v>
       </c>
@@ -5045,12 +5049,17 @@
         <v>525</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>526</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>527</v>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
